--- a/Code/Results/Cases/Case_8_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.28365630334321</v>
+        <v>13.32722752716502</v>
       </c>
       <c r="C2">
-        <v>8.606480948702142</v>
+        <v>9.101010980339391</v>
       </c>
       <c r="D2">
-        <v>7.918285226796466</v>
+        <v>8.199830627980175</v>
       </c>
       <c r="E2">
-        <v>11.66991443691331</v>
+        <v>11.93470370807773</v>
       </c>
       <c r="F2">
-        <v>24.08917862319625</v>
+        <v>23.01304979653476</v>
       </c>
       <c r="G2">
-        <v>2.114273084647916</v>
+        <v>5.698438097938712</v>
       </c>
       <c r="H2">
-        <v>2.193930713873602</v>
+        <v>1.960466582013709</v>
       </c>
       <c r="I2">
-        <v>3.21061528900778</v>
+        <v>2.898278179639771</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.5356255727914</v>
+        <v>14.52096220702342</v>
       </c>
       <c r="L2">
-        <v>6.923825713262294</v>
+        <v>12.09899160704773</v>
       </c>
       <c r="M2">
-        <v>12.17082079746088</v>
+        <v>9.362926540253547</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.011143808842088</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.40402061886667</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>17.13861647458658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.11583537929172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.4422934305014</v>
+        <v>12.52052878391225</v>
       </c>
       <c r="C3">
-        <v>8.090430543199352</v>
+        <v>8.499739053419798</v>
       </c>
       <c r="D3">
-        <v>7.490824906356234</v>
+        <v>7.770130491999707</v>
       </c>
       <c r="E3">
-        <v>11.0841614771383</v>
+        <v>11.36391475260273</v>
       </c>
       <c r="F3">
-        <v>23.73668087168884</v>
+        <v>22.67582907643169</v>
       </c>
       <c r="G3">
-        <v>2.117913589786355</v>
+        <v>6.177417880922956</v>
       </c>
       <c r="H3">
-        <v>2.411832673791996</v>
+        <v>2.158732952128179</v>
       </c>
       <c r="I3">
-        <v>3.360416054875527</v>
+        <v>3.020467581378146</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.64630682587753</v>
+        <v>14.63668551844111</v>
       </c>
       <c r="L3">
-        <v>6.717434299374024</v>
+        <v>12.2563759246275</v>
       </c>
       <c r="M3">
-        <v>11.46643803528201</v>
+        <v>9.410930924965438</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.817222994980185</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.69798073791264</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.12347117466763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.09891187039394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89415564349874</v>
+        <v>11.99557608959081</v>
       </c>
       <c r="C4">
-        <v>7.760464721889104</v>
+        <v>8.114376154046186</v>
       </c>
       <c r="D4">
-        <v>7.217198481928828</v>
+        <v>7.496048812831877</v>
       </c>
       <c r="E4">
-        <v>10.70882671965119</v>
+        <v>10.99915493535807</v>
       </c>
       <c r="F4">
-        <v>23.52421914879165</v>
+        <v>22.46988440858955</v>
       </c>
       <c r="G4">
-        <v>2.120224181473308</v>
+        <v>6.481549262944888</v>
       </c>
       <c r="H4">
-        <v>2.550689392637795</v>
+        <v>2.285185551393012</v>
       </c>
       <c r="I4">
-        <v>3.456391161219267</v>
+        <v>3.099187560390147</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.71779189627471</v>
+        <v>14.70948122956757</v>
       </c>
       <c r="L4">
-        <v>6.586757256980041</v>
+        <v>12.35503416936328</v>
       </c>
       <c r="M4">
-        <v>11.01129971038034</v>
+        <v>9.456476429826191</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.69464315866069</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.24233869497936</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.11963529381076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.09156215336149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66042862986881</v>
+        <v>11.77191372129917</v>
       </c>
       <c r="C5">
-        <v>7.633167458082949</v>
+        <v>7.963602112140815</v>
       </c>
       <c r="D5">
-        <v>7.105655138263317</v>
+        <v>7.38445150184484</v>
       </c>
       <c r="E5">
-        <v>10.55308086168292</v>
+        <v>10.84804704721548</v>
       </c>
       <c r="F5">
-        <v>23.4297260444765</v>
+        <v>22.37746973796153</v>
       </c>
       <c r="G5">
-        <v>2.121190750250538</v>
+        <v>6.608820726076482</v>
       </c>
       <c r="H5">
-        <v>2.608781333968012</v>
+        <v>2.338104721710081</v>
       </c>
       <c r="I5">
-        <v>3.499171151008831</v>
+        <v>3.13541416296716</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.74185863307456</v>
+        <v>14.73392582264612</v>
       </c>
       <c r="L5">
-        <v>6.532212231160718</v>
+        <v>12.3903194368995</v>
       </c>
       <c r="M5">
-        <v>10.82210490344294</v>
+        <v>9.476011722068462</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.643530832164979</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.05301407710205</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.11305410448466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.0830463351139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61816878141429</v>
+        <v>11.73149106697312</v>
       </c>
       <c r="C6">
-        <v>7.624599823590223</v>
+        <v>7.950905257281367</v>
       </c>
       <c r="D6">
-        <v>7.090256801126178</v>
+        <v>7.368904277356251</v>
       </c>
       <c r="E6">
-        <v>10.528264344993</v>
+        <v>10.82397310607725</v>
       </c>
       <c r="F6">
-        <v>23.4031345418732</v>
+        <v>22.35136235676014</v>
       </c>
       <c r="G6">
-        <v>2.121359429407299</v>
+        <v>6.631056191726399</v>
       </c>
       <c r="H6">
-        <v>2.618770238219647</v>
+        <v>2.347195454534547</v>
       </c>
       <c r="I6">
-        <v>3.509742410634643</v>
+        <v>3.145630467192261</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.73866760578721</v>
+        <v>14.73111865344871</v>
       </c>
       <c r="L6">
-        <v>6.52268401320844</v>
+        <v>12.38958953381819</v>
       </c>
       <c r="M6">
-        <v>10.79268801824103</v>
+        <v>9.47580554644221</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.634607685597166</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.02348730669385</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.10427587363244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.07402952370522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88310943022497</v>
+        <v>11.98800120194012</v>
       </c>
       <c r="C7">
-        <v>7.792869036217001</v>
+        <v>8.127932868131516</v>
       </c>
       <c r="D7">
-        <v>7.224496769478378</v>
+        <v>7.518004896004479</v>
       </c>
       <c r="E7">
-        <v>10.71015949965137</v>
+        <v>11.00618802369686</v>
       </c>
       <c r="F7">
-        <v>23.49317537915011</v>
+        <v>22.38707639062431</v>
       </c>
       <c r="G7">
-        <v>2.120255908934892</v>
+        <v>6.534805811034243</v>
       </c>
       <c r="H7">
-        <v>2.552176461065668</v>
+        <v>2.287833145333515</v>
       </c>
       <c r="I7">
-        <v>3.465973933684498</v>
+        <v>3.111875593848674</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.69835659310862</v>
+        <v>14.6678970833589</v>
       </c>
       <c r="L7">
-        <v>6.584910823268979</v>
+        <v>12.31640395720871</v>
       </c>
       <c r="M7">
-        <v>11.01503278514961</v>
+        <v>9.432884618956367</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.690948264356742</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.24165782177276</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.09838742670329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.03372351982403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.99040192380348</v>
+        <v>13.05524941645196</v>
       </c>
       <c r="C8">
-        <v>8.473238955373013</v>
+        <v>8.8826998474023</v>
       </c>
       <c r="D8">
-        <v>7.784120218101504</v>
+        <v>8.111258309844166</v>
       </c>
       <c r="E8">
-        <v>11.47552743825297</v>
+        <v>11.76327767595354</v>
       </c>
       <c r="F8">
-        <v>23.92836242521278</v>
+        <v>22.68990495989513</v>
       </c>
       <c r="G8">
-        <v>2.115536078202267</v>
+        <v>6.115125808616027</v>
       </c>
       <c r="H8">
-        <v>2.268902616329568</v>
+        <v>2.032721275802978</v>
       </c>
       <c r="I8">
-        <v>3.272928077485241</v>
+        <v>2.957510100983412</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.54700319731561</v>
+        <v>14.4610681358175</v>
       </c>
       <c r="L8">
-        <v>6.852108900412881</v>
+        <v>12.06750434921208</v>
       </c>
       <c r="M8">
-        <v>11.94045016657836</v>
+        <v>9.310306076723485</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.93753640784513</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.15986489573775</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17.10451953770481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.96196457886682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.9244691734076</v>
+        <v>14.91324618846991</v>
       </c>
       <c r="C9">
-        <v>9.647658532209825</v>
+        <v>10.24487633754548</v>
       </c>
       <c r="D9">
-        <v>8.77583548952154</v>
+        <v>9.120050301609433</v>
       </c>
       <c r="E9">
-        <v>12.84258025700693</v>
+        <v>13.1029938861378</v>
       </c>
       <c r="F9">
-        <v>24.86252116937179</v>
+        <v>23.53287326569866</v>
       </c>
       <c r="G9">
-        <v>2.106833581495045</v>
+        <v>5.061564090453451</v>
       </c>
       <c r="H9">
-        <v>1.751653695775444</v>
+        <v>1.563507382886328</v>
       </c>
       <c r="I9">
-        <v>2.910899270073181</v>
+        <v>2.661456057932588</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.31446828716904</v>
+        <v>14.18578004505723</v>
       </c>
       <c r="L9">
-        <v>7.345016323552598</v>
+        <v>11.70109884451445</v>
       </c>
       <c r="M9">
-        <v>13.56340527625129</v>
+        <v>9.268990855956687</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.400609963811526</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.78730418348898</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.19911102955666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.01705993838835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19336095317277</v>
+        <v>16.15013866219579</v>
       </c>
       <c r="C10">
-        <v>10.43464866357809</v>
+        <v>11.06116360213862</v>
       </c>
       <c r="D10">
-        <v>9.358671927808784</v>
+        <v>9.78531289127223</v>
       </c>
       <c r="E10">
-        <v>13.53474877587044</v>
+        <v>13.80796289739453</v>
       </c>
       <c r="F10">
-        <v>25.36654476617588</v>
+        <v>23.69549918188127</v>
       </c>
       <c r="G10">
-        <v>2.100911896843657</v>
+        <v>5.48092390366379</v>
       </c>
       <c r="H10">
-        <v>1.712977325696067</v>
+        <v>1.857371379763467</v>
       </c>
       <c r="I10">
-        <v>2.67389034857512</v>
+        <v>2.504842880971821</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.09138203308302</v>
+        <v>13.80994845113367</v>
       </c>
       <c r="L10">
-        <v>7.573679031691541</v>
+        <v>11.31675526213641</v>
       </c>
       <c r="M10">
-        <v>14.63895033484744</v>
+        <v>9.161884217207577</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.601483281209729</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.84628939356797</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.19784251571948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.7830237783594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75214354896551</v>
+        <v>16.74275690382682</v>
       </c>
       <c r="C11">
-        <v>10.60748426299095</v>
+        <v>11.01335586927369</v>
       </c>
       <c r="D11">
-        <v>8.844713687077581</v>
+        <v>9.406007310278106</v>
       </c>
       <c r="E11">
-        <v>11.87479538686294</v>
+        <v>12.19991788318024</v>
       </c>
       <c r="F11">
-        <v>23.98040433411967</v>
+        <v>21.81055272179505</v>
       </c>
       <c r="G11">
-        <v>2.099348564659194</v>
+        <v>8.751433393790894</v>
       </c>
       <c r="H11">
-        <v>2.685378200355183</v>
+        <v>2.766016905825178</v>
       </c>
       <c r="I11">
-        <v>2.625647854433806</v>
+        <v>2.562607150554608</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.44039716978584</v>
+        <v>13.02516921792855</v>
       </c>
       <c r="L11">
-        <v>6.766870865451108</v>
+        <v>10.75328901663377</v>
       </c>
       <c r="M11">
-        <v>15.05211542542535</v>
+        <v>8.569462335516215</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.780678557465343</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.20550442755076</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.39264627752591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.64357405353878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.97706037048231</v>
+        <v>16.99421888289322</v>
       </c>
       <c r="C12">
-        <v>10.55101113763293</v>
+        <v>10.81454970611054</v>
       </c>
       <c r="D12">
-        <v>8.272464958490087</v>
+        <v>8.886956330053296</v>
       </c>
       <c r="E12">
-        <v>10.35251978978261</v>
+        <v>10.69927449738703</v>
       </c>
       <c r="F12">
-        <v>22.74161263007627</v>
+        <v>20.41035014359533</v>
       </c>
       <c r="G12">
-        <v>2.099143287271704</v>
+        <v>10.50763048297061</v>
       </c>
       <c r="H12">
-        <v>4.039329367093085</v>
+        <v>4.0634885126952</v>
       </c>
       <c r="I12">
-        <v>2.613748598766182</v>
+        <v>2.568604775941137</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.98380199853192</v>
+        <v>12.58556492812991</v>
       </c>
       <c r="L12">
-        <v>6.123495686249844</v>
+        <v>10.46989498133616</v>
       </c>
       <c r="M12">
-        <v>15.17499823260739</v>
+        <v>8.194677801902825</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.13968438112886</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.29744988976397</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.74703231134093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.91126650212507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.95702608752397</v>
+        <v>16.99074579414341</v>
       </c>
       <c r="C13">
-        <v>10.35361670620219</v>
+        <v>10.55529201985508</v>
       </c>
       <c r="D13">
-        <v>7.615169675299807</v>
+        <v>8.194580681964775</v>
       </c>
       <c r="E13">
-        <v>8.834113174160471</v>
+        <v>9.171674353544487</v>
       </c>
       <c r="F13">
-        <v>21.49166621522873</v>
+        <v>19.34294659081592</v>
       </c>
       <c r="G13">
-        <v>2.099998154270557</v>
+        <v>10.15354539230997</v>
       </c>
       <c r="H13">
-        <v>5.500087557376151</v>
+        <v>5.464325385700024</v>
       </c>
       <c r="I13">
-        <v>2.644476862399268</v>
+        <v>2.543962327525866</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.62279784320386</v>
+        <v>12.37004157393866</v>
       </c>
       <c r="L13">
-        <v>5.587452105752442</v>
+        <v>10.34333534720601</v>
       </c>
       <c r="M13">
-        <v>15.09343244228708</v>
+        <v>7.978741007086744</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.620667445998013</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.20680366052823</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.15496171624215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.47094737646387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.83032702341769</v>
+        <v>16.87149324399925</v>
       </c>
       <c r="C14">
-        <v>10.15713661219676</v>
+        <v>10.34907788063147</v>
       </c>
       <c r="D14">
-        <v>7.110565303192648</v>
+        <v>7.627297802892666</v>
       </c>
       <c r="E14">
-        <v>7.792051735148299</v>
+        <v>8.11272100145424</v>
       </c>
       <c r="F14">
-        <v>20.60958683057606</v>
+        <v>18.72575421750126</v>
       </c>
       <c r="G14">
-        <v>2.10107396502518</v>
+        <v>8.994719081496209</v>
       </c>
       <c r="H14">
-        <v>6.525613620190179</v>
+        <v>6.491901389805256</v>
       </c>
       <c r="I14">
-        <v>2.688215903760975</v>
+        <v>2.514646968005892</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.41568823050462</v>
+        <v>12.30381548193933</v>
       </c>
       <c r="L14">
-        <v>5.295511843555309</v>
+        <v>10.30788435602708</v>
       </c>
       <c r="M14">
-        <v>14.94444464705596</v>
+        <v>7.892546062651848</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.345484747349417</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.0607284597699</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.76562992866465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.27635021472797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.74396483162767</v>
+        <v>16.78537760724712</v>
       </c>
       <c r="C15">
-        <v>10.08881335628932</v>
+        <v>10.29258672896284</v>
       </c>
       <c r="D15">
-        <v>6.971177027078905</v>
+        <v>7.456505340378899</v>
       </c>
       <c r="E15">
-        <v>7.536953306784453</v>
+        <v>7.850053453507573</v>
       </c>
       <c r="F15">
-        <v>20.38494477100226</v>
+        <v>18.62190192694907</v>
       </c>
       <c r="G15">
-        <v>2.101582260075624</v>
+        <v>8.342520615830326</v>
       </c>
       <c r="H15">
-        <v>6.763689929698955</v>
+        <v>6.729486101805737</v>
       </c>
       <c r="I15">
-        <v>2.712927724813448</v>
+        <v>2.526163710411053</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.37898478174762</v>
+        <v>12.31801332980867</v>
       </c>
       <c r="L15">
-        <v>5.236183628595192</v>
+        <v>10.31778137111188</v>
       </c>
       <c r="M15">
-        <v>14.8656936456797</v>
+        <v>7.89437259552686</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.292006694522942</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.98676826479047</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.67648596134087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.2709790076197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.22671619430688</v>
+        <v>16.25638698084265</v>
       </c>
       <c r="C16">
-        <v>9.80852120402807</v>
+        <v>10.13104315110849</v>
       </c>
       <c r="D16">
-        <v>6.820685364376446</v>
+        <v>7.173701888269939</v>
       </c>
       <c r="E16">
-        <v>7.466052050954114</v>
+        <v>7.751023967574396</v>
       </c>
       <c r="F16">
-        <v>20.38870708120017</v>
+        <v>19.0922184238098</v>
       </c>
       <c r="G16">
-        <v>2.103944100236216</v>
+        <v>5.644521284595667</v>
       </c>
       <c r="H16">
-        <v>6.561951646838993</v>
+        <v>6.517942528059395</v>
       </c>
       <c r="I16">
-        <v>2.812985498999304</v>
+        <v>2.599666959430084</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.54268930171796</v>
+        <v>12.62395137769566</v>
       </c>
       <c r="L16">
-        <v>5.230093796703531</v>
+        <v>10.51720238364512</v>
       </c>
       <c r="M16">
-        <v>14.43997219134588</v>
+        <v>8.118844869197384</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.303251981640306</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.59658552505076</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.78724130300545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.68651265195638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8910206350038</v>
+        <v>15.91167710367201</v>
       </c>
       <c r="C17">
-        <v>9.70021364920388</v>
+        <v>10.09961757847888</v>
       </c>
       <c r="D17">
-        <v>6.98480170431478</v>
+        <v>7.286709370018293</v>
       </c>
       <c r="E17">
-        <v>7.967426683530221</v>
+        <v>8.238747991292144</v>
       </c>
       <c r="F17">
-        <v>20.86020056926899</v>
+        <v>19.73516823696266</v>
       </c>
       <c r="G17">
-        <v>2.105192756560049</v>
+        <v>4.919856310505195</v>
       </c>
       <c r="H17">
-        <v>5.831596111403159</v>
+        <v>5.776675487351495</v>
       </c>
       <c r="I17">
-        <v>2.867475571498053</v>
+        <v>2.640749747581133</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.77341688409635</v>
+        <v>12.88928745715265</v>
       </c>
       <c r="L17">
-        <v>5.364767059103941</v>
+        <v>10.70222164617848</v>
       </c>
       <c r="M17">
-        <v>14.18962835784127</v>
+        <v>8.31862367099601</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.443314002906219</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.36766524533233</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.07549903376441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.08157699915479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.68706286537624</v>
+        <v>15.694105611214</v>
       </c>
       <c r="C18">
-        <v>9.708427405530262</v>
+        <v>10.18684416526107</v>
       </c>
       <c r="D18">
-        <v>7.434510510701879</v>
+        <v>7.723596097007319</v>
       </c>
       <c r="E18">
-        <v>9.08622627579067</v>
+        <v>9.344826149247575</v>
       </c>
       <c r="F18">
-        <v>21.81778487869425</v>
+        <v>20.72517442919184</v>
       </c>
       <c r="G18">
-        <v>2.105552551617038</v>
+        <v>4.725165769663873</v>
       </c>
       <c r="H18">
-        <v>4.585457042596826</v>
+        <v>4.513905045240911</v>
       </c>
       <c r="I18">
-        <v>2.876745011462997</v>
+        <v>2.643171359566487</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.11300040619964</v>
+        <v>13.20315161181151</v>
       </c>
       <c r="L18">
-        <v>5.72183942194849</v>
+        <v>10.92805645038947</v>
       </c>
       <c r="M18">
-        <v>14.06383330286552</v>
+        <v>8.565095818767295</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.797313395891322</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.25981169849548</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.57086436792773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.58910747112136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.59647861447299</v>
+        <v>15.58540363249029</v>
       </c>
       <c r="C19">
-        <v>9.862095403474335</v>
+        <v>10.42602526576389</v>
       </c>
       <c r="D19">
-        <v>8.087248096050988</v>
+        <v>8.38442148933777</v>
       </c>
       <c r="E19">
-        <v>10.67584986219331</v>
+        <v>10.92407836570681</v>
       </c>
       <c r="F19">
-        <v>23.06561154497173</v>
+        <v>21.92783715392973</v>
       </c>
       <c r="G19">
-        <v>2.105126329510431</v>
+        <v>4.619933044096756</v>
       </c>
       <c r="H19">
-        <v>3.104779674298781</v>
+        <v>3.003851074182813</v>
       </c>
       <c r="I19">
-        <v>2.866579457196444</v>
+        <v>2.636606684723977</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.50682642052363</v>
+        <v>13.53571953901457</v>
       </c>
       <c r="L19">
-        <v>6.329563924285667</v>
+        <v>11.16918216372059</v>
       </c>
       <c r="M19">
-        <v>14.06016240400622</v>
+        <v>8.834168042149679</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.395688189631549</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.27199298229648</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.17730817519333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.15505014313065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85133526478806</v>
+        <v>15.80851451897359</v>
       </c>
       <c r="C20">
-        <v>10.31473184950312</v>
+        <v>10.983048178554</v>
       </c>
       <c r="D20">
-        <v>9.226583915902745</v>
+        <v>9.587467674274318</v>
       </c>
       <c r="E20">
-        <v>13.35502856102877</v>
+        <v>13.60729669017558</v>
       </c>
       <c r="F20">
-        <v>25.14022444430141</v>
+        <v>23.73208725449441</v>
       </c>
       <c r="G20">
-        <v>2.102497773390048</v>
+        <v>4.657681456520682</v>
       </c>
       <c r="H20">
-        <v>1.62157247613637</v>
+        <v>1.780067366565096</v>
       </c>
       <c r="I20">
-        <v>2.766504856309927</v>
+        <v>2.560132471056502</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.08554396703633</v>
+        <v>13.9286096137072</v>
       </c>
       <c r="L20">
-        <v>7.506765657416141</v>
+        <v>11.42881270204007</v>
       </c>
       <c r="M20">
-        <v>14.37950865969892</v>
+        <v>9.204456606381711</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.547787328881974</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.60213015888952</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.12885149615713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.90360531063134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.77850662190468</v>
+        <v>16.75308925703659</v>
       </c>
       <c r="C21">
-        <v>10.91454566218811</v>
+        <v>11.36240471116552</v>
       </c>
       <c r="D21">
-        <v>9.79016020333121</v>
+        <v>10.44064984276964</v>
       </c>
       <c r="E21">
-        <v>14.2179977074071</v>
+        <v>14.57140281591361</v>
       </c>
       <c r="F21">
-        <v>25.83493402095831</v>
+        <v>23.26501603312887</v>
       </c>
       <c r="G21">
-        <v>2.097841582429011</v>
+        <v>10.22749413689191</v>
       </c>
       <c r="H21">
-        <v>1.891462677195809</v>
+        <v>2.003743849001384</v>
       </c>
       <c r="I21">
-        <v>2.578055630646382</v>
+        <v>2.607601934513957</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.02991571466471</v>
+        <v>13.3425538974125</v>
       </c>
       <c r="L21">
-        <v>7.848371721331231</v>
+        <v>10.95581473534021</v>
       </c>
       <c r="M21">
-        <v>15.1759695559948</v>
+        <v>8.867584039480459</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.837461394516858</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.33083359510036</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.2928490386623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.22679981322653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.36586233507161</v>
+        <v>17.35665327115853</v>
       </c>
       <c r="C22">
-        <v>11.2504129846255</v>
+        <v>11.53998430886678</v>
       </c>
       <c r="D22">
-        <v>10.09222710649392</v>
+        <v>10.94133714366252</v>
       </c>
       <c r="E22">
-        <v>14.64340076382597</v>
+        <v>15.06986391562519</v>
       </c>
       <c r="F22">
-        <v>26.23054247022373</v>
+        <v>22.84866439785139</v>
       </c>
       <c r="G22">
-        <v>2.094901347947926</v>
+        <v>15.00723802364796</v>
       </c>
       <c r="H22">
-        <v>2.058918862825279</v>
+        <v>2.142696438789957</v>
       </c>
       <c r="I22">
-        <v>2.553839489488811</v>
+        <v>2.684714958022814</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.99144081055009</v>
+        <v>12.94007742342986</v>
       </c>
       <c r="L22">
-        <v>8.011187983018411</v>
+        <v>10.66087874627738</v>
       </c>
       <c r="M22">
-        <v>15.66633138647348</v>
+        <v>8.61948090612748</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.966968742132316</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.77547225968909</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.38583427373282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.73014379793339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.06166494781027</v>
+        <v>17.03714851752888</v>
       </c>
       <c r="C23">
-        <v>11.04243463828537</v>
+        <v>11.45122380314602</v>
       </c>
       <c r="D23">
-        <v>9.924270119639536</v>
+        <v>10.63708845236634</v>
       </c>
       <c r="E23">
-        <v>14.4146545074292</v>
+        <v>14.78932899634395</v>
       </c>
       <c r="F23">
-        <v>26.05040975766977</v>
+        <v>23.22106790938993</v>
       </c>
       <c r="G23">
-        <v>2.096449003541411</v>
+        <v>11.64704189452315</v>
       </c>
       <c r="H23">
-        <v>1.970509395926168</v>
+        <v>2.071042598985863</v>
       </c>
       <c r="I23">
-        <v>2.504054791764127</v>
+        <v>2.63824149468127</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.03450877425299</v>
+        <v>13.22343181162497</v>
       </c>
       <c r="L23">
-        <v>7.925735909998701</v>
+        <v>10.85775335312693</v>
       </c>
       <c r="M23">
-        <v>15.40087541173759</v>
+        <v>8.816273913113434</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.902898564577127</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.54208339863882</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.35928881127804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.1030449032592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84472530824928</v>
+        <v>15.79947515030124</v>
       </c>
       <c r="C24">
-        <v>10.27619484923541</v>
+        <v>10.95527485996186</v>
       </c>
       <c r="D24">
-        <v>9.277469860791287</v>
+        <v>9.63798930707255</v>
       </c>
       <c r="E24">
-        <v>13.52175890923503</v>
+        <v>13.77322068018712</v>
       </c>
       <c r="F24">
-        <v>25.32398359010427</v>
+        <v>23.91570553938945</v>
       </c>
       <c r="G24">
-        <v>2.102445012555151</v>
+        <v>4.620604707462921</v>
       </c>
       <c r="H24">
-        <v>1.627256127484894</v>
+        <v>1.786409666903858</v>
       </c>
       <c r="I24">
-        <v>2.746629086999559</v>
+        <v>2.535775063614463</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.1705700024531</v>
+        <v>14.00528390511822</v>
       </c>
       <c r="L24">
-        <v>7.591714849883062</v>
+        <v>11.48438907032396</v>
       </c>
       <c r="M24">
-        <v>14.3627219398048</v>
+        <v>9.265956012810568</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.632112919307207</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.58764298389368</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.23495581329861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.00794970652227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.41597027293595</v>
+        <v>14.42080876289509</v>
       </c>
       <c r="C25">
-        <v>9.393412959727113</v>
+        <v>9.963767042179388</v>
       </c>
       <c r="D25">
-        <v>8.531234750416028</v>
+        <v>8.851181730822544</v>
       </c>
       <c r="E25">
-        <v>12.49232868538839</v>
+        <v>12.75171002165109</v>
       </c>
       <c r="F25">
-        <v>24.55626966699382</v>
+        <v>23.32514863981762</v>
       </c>
       <c r="G25">
-        <v>2.109156363702112</v>
+        <v>5.183598284852533</v>
       </c>
       <c r="H25">
-        <v>1.888583384996321</v>
+        <v>1.685911018410204</v>
       </c>
       <c r="I25">
-        <v>3.022230770221911</v>
+        <v>2.757350781704213</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.33874123687371</v>
+        <v>14.25806708692159</v>
       </c>
       <c r="L25">
-        <v>7.213624354328092</v>
+        <v>11.79799597322804</v>
       </c>
       <c r="M25">
-        <v>13.15374162369779</v>
+        <v>9.265651642776698</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.279520127168247</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.38093204124858</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.13113309337849</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.01408941151734</v>
       </c>
     </row>
   </sheetData>
